--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">View/Edit Visitors List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Memberships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Members</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -189,6 +195,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">Manage Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter New Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconcile Applications</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -223,6 +229,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t xml:space="preserve">Reconcile Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View/Edit Region Business Rules
+</t>
   </si>
 </sst>
 </file>
@@ -124,9 +128,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -146,7 +154,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -154,8 +162,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="28.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -255,6 +262,20 @@
       </c>
       <c r="D7" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -52,8 +52,7 @@
     <t xml:space="preserve">Reconcile Applications</t>
   </si>
   <si>
-    <t xml:space="preserve">View/Edit Region Business Rules
-</t>
+    <t xml:space="preserve">View/Edit Region Business Rules</t>
   </si>
 </sst>
 </file>
@@ -264,7 +263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">View/Edit Region Business Rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter One to Ones</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -277,6 +280,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">Enter One to Ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View PALMS Summary</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -294,6 +300,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">View PALMS Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter PALMS</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -328,6 +331,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Add a Visitor</t>
   </si>
   <si>
-    <t xml:space="preserve">View/Edit Visitors List</t>
+    <t xml:space="preserve">View / Edit Visitors List</t>
   </si>
   <si>
     <t xml:space="preserve">Manage Memberships</t>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Enter PALMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Network</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -345,6 +348,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">My Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View / Allocate Roles</t>
   </si>
 </sst>
 </file>
@@ -168,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,6 +368,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/resources/inputFiles/translation.xlsx
+++ b/src/test/resources/inputFiles/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t xml:space="preserve">BaseToken</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">View / Allocate Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Members</t>
   </si>
 </sst>
 </file>
@@ -174,10 +180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,6 +402,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
